--- a/CSharpMaterial1.xlsx
+++ b/CSharpMaterial1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesha\Documents\C Sharp Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesha\Documents\C Sharp Programming\Material1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809E700B-2E76-4124-8099-5640DC4E45D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304FD401-8BD4-416D-B13C-505836DD1735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{241B3061-6AE2-480A-8CFF-E8A550F0280A}"/>
   </bookViews>
   <sheets>
     <sheet name="C#daily Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'C#daily Schedule'!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -50,8 +53,170 @@
     <t>Initials</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Read Class Demonstrations on pgs </t>
+    <t>4.	Why do you use constructor?
+ Constructor is used to initialize the class fields (class member variables) with default values / initial values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXERCISE-2:
+Write a constructor in the Car class given below that initializes the brand class field with the string “Ford”.
+all the getBrand() method in the main method of the Sample class and store the value of the brand in a variable, and print the value.
+ </t>
+  </si>
+  <si>
+    <t>Show answer to Aaditya.. Pg1 in CSharpMaterial1 Answers</t>
+  </si>
+  <si>
+    <t>See answer on pg 3</t>
+  </si>
+  <si>
+    <t>C# Material1 AdditionalStudy
+Read Pg 1, 2, 3
+Write the Program in pg 4
+Read pg 5</t>
+  </si>
+  <si>
+    <t>Beginning C# Object-Oriented Programming:
+Read pg 88, 89, 90, 91
+Write the program in Console:
+Pg 92, 93, 94, 95 until overloading methods</t>
+  </si>
+  <si>
+    <t>Beginning C# Object-Oriented Programming:Write and read the program in console
+ pg 95, 96, 97, 98, 99, 100</t>
+  </si>
+  <si>
+    <t>C# Material1 AdditionalStudy:Write program in pg 6 
+Read pg 7
+Write the program on pg 7 and see the answer to confirm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Interactive C# Fundamentals, Core Concepts and Patterns:Chapter 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Object Oriented Programming
+Read pgs: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>36-42</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interactive C# Fundamentals, Core Concepts and Patterns:Chapter 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The Building Blocks: 
+Class and Objects
+Read pgs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43-45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Write the program displayed on pg </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in VS: just show to Aaditya to confirm and take his initials
+Read </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">46, 47 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>until Class Demonstrations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interactive C# Fundamentals, Core Concepts and Patterns:Read Class Demonstrations on pgs </t>
     </r>
     <r>
       <rPr>
@@ -168,7 +333,7 @@
     </r>
   </si>
   <si>
-    <t>Pg 51: Write the Demonstration 2 program in Visual Studio: Show to aaditya at the end.
+    <t>Interactive C# Fundamentals, Core Concepts and Patterns:Pg 51: Write the Demonstration 2 program in Visual Studio: Show to aaditya at the end.
 Read pg 52 Analysis, 
 pg 53 Additional Comments, 
 read 54(No need to render the answer)
@@ -178,35 +343,35 @@
 Write the Quiz on pg 55.</t>
   </si>
   <si>
-    <t>Read pgs 55-59(Don't Do Demonstration 3 yet)
+    <t>Interactive C# Fundamentals, Core Concepts and Patterns::Read pgs 55-59(Don't Do Demonstration 3 yet)
 Understand the concepts.
 Explain to Aaditya..</t>
   </si>
   <si>
-    <t>Write the Demonstration 3 on pg 59 and show it to Aaditya..
+    <t>Interactive C# Fundamentals, Core Concepts and Patterns::Write the Demonstration 3 on pg 59 and show it to Aaditya..
 Read Analysis on pg 60-61
 Explain to Aaditya.
 Render out loud the Points to Remember.</t>
   </si>
   <si>
-    <t>Write the Demonstration 4 on pg 62
+    <t>Interactive C# Fundamentals, Core Concepts and Patterns::Write the Demonstration 4 on pg 62
 Read 63.
 Write the Demonstration 5 on pg 63
 Read 64
 Explain or show the Demo 4 and 5 to Aaditya</t>
   </si>
   <si>
-    <t>Write the Demonstration 6 on pg 65, 66
+    <t>Interactive C# Fundamentals, Core Concepts and Patterns::Write the Demonstration 6 on pg 65, 66
 Read Analysis on pg 67
 Explain to Aaditya</t>
   </si>
   <si>
-    <t>Write the Demonstration 7 on pg 68, 69
+    <t>Interactive C# Fundamentals, Core Concepts and Patterns::Write the Demonstration 7 on pg 68, 69
 Read the analysis on pg 69, 70
 Show and explain to Aaditya</t>
   </si>
   <si>
-    <t>Exercise: Add a constructor to your class.
+    <t>Interactive C# Fundamentals, Core Concepts and Patterns::Exercise: Add a constructor to your class.
 Goal
 Add a constructor to your Animal class. Your constructor should pass in a string parameter named "sound".
 using System;
@@ -233,147 +398,6 @@
 No need to write a return type in a constructor declaration.
 4.	Why do you use constructor?
  Constructor is used to initialize the class fields (class member variables) with default values / initial values.</t>
-  </si>
-  <si>
-    <t>4.	Why do you use constructor?
- Constructor is used to initialize the class fields (class member variables) with default values / initial values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXERCISE-2:
-Write a constructor in the Car class given below that initializes the brand class field with the string “Ford”.
-all the getBrand() method in the main method of the Sample class and store the value of the brand in a variable, and print the value.
- </t>
-  </si>
-  <si>
-    <t>Show answer to Aaditya.. Pg1 in CSharpMaterial1 Answers</t>
-  </si>
-  <si>
-    <t>See answer on pg 3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chapter 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Object Oriented Programming
-Read pgs: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>36-42</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chapter 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The Building Blocks: 
-Class and Objects
-Read pgs </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>43-45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Write the program displayed on pg </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>46</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in VS: just show to Aaditya to confirm and take his initials
-Read </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">46, 47 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>until Class Demonstrations</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -563,14 +587,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12701</xdr:rowOff>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>210793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4473461</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>4318001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -600,8 +624,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="768350" y="16510001"/>
-          <a:ext cx="4416311" cy="4305300"/>
+          <a:off x="971550" y="21000693"/>
+          <a:ext cx="4213111" cy="4107208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,15 +637,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7702946</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>5073911</xdr:rowOff>
+      <xdr:colOff>8299846</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5156461</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -650,7 +674,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="711200" y="21697950"/>
+          <a:off x="1308100" y="26885900"/>
           <a:ext cx="7702946" cy="5073911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -963,16 +987,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="2" width="131.7265625" customWidth="1"/>
+    <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -993,7 +1018,7 @@
     <row r="2" spans="1:4" ht="61.5" x14ac:dyDescent="0.5">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1001,183 +1026,137 @@
     <row r="3" spans="1:4" ht="137" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="224" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="161.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="224" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="161.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="10" t="s">
-        <v>10</v>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9"/>
+    <row r="12" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="14" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="16" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>15</v>
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
   </sheetData>
-  <printOptions gridLines="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="76" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;P&amp;C&amp;A</oddHeader>
   </headerFooter>

--- a/CSharpMaterial1.xlsx
+++ b/CSharpMaterial1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesha\Documents\C Sharp Programming\Material1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesha\Documents\C#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94683F05-F316-4E4D-88BC-14566789921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1D695D-C714-4564-8271-12356795C16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{241B3061-6AE2-480A-8CFF-E8A550F0280A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{241B3061-6AE2-480A-8CFF-E8A550F0280A}"/>
   </bookViews>
   <sheets>
     <sheet name="C# Constructors" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -533,30 +533,6 @@
     <t>Read and try the example here: https://interviewsansar.com/real-time-example-of-sealed-class-and-method-in-c/</t>
   </si>
   <si>
-    <t>9/2/2023,
-9/3/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/4/2023,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/5/2023,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/6/2023,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/7/2023,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/8/2023,
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">9/9/2023,
 </t>
   </si>
@@ -569,14 +545,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">9/12/2023,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/13/2023,
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">9/14/2023,
 </t>
   </si>
@@ -626,6 +594,35 @@
   </si>
   <si>
     <t xml:space="preserve">9/26/2023,
+</t>
+  </si>
+  <si>
+    <t>No R</t>
+  </si>
+  <si>
+    <t>*.N, S.N</t>
+  </si>
+  <si>
+    <t>9/6, 7/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/11, 12/2023,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/13, 14/2023,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/19, 24/2023,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/28/2023,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/29/2023,
 </t>
   </si>
 </sst>
@@ -1174,8 +1171,8 @@
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10458830</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>156</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>4908794</xdr:rowOff>
     </xdr:to>
@@ -1271,13 +1268,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>7709646</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>590177</xdr:rowOff>
+      <xdr:rowOff>590176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>10129120</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1156249</xdr:rowOff>
+      <xdr:rowOff>824753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1306,8 +1303,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8419352" y="42298471"/>
-          <a:ext cx="2419474" cy="3397425"/>
+          <a:off x="8498540" y="42589823"/>
+          <a:ext cx="2419474" cy="3058459"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2176,15 +2173,15 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="61.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="61.2" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -2206,7 +2203,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="137" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="136.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -2214,7 +2211,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -2222,7 +2219,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2230,7 +2227,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
         <v>28</v>
@@ -2238,7 +2235,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="14" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
         <v>29</v>
@@ -2246,7 +2243,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="224" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
@@ -2254,7 +2251,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="161.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="161.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -2262,7 +2259,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -2270,7 +2267,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -2278,7 +2275,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -2286,7 +2283,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
@@ -2294,7 +2291,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
         <v>18</v>
@@ -2302,7 +2299,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="7" t="s">
         <v>19</v>
@@ -2310,7 +2307,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="7" t="s">
         <v>4</v>
@@ -2318,7 +2315,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="11" t="s">
         <v>5</v>
@@ -2328,7 +2325,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
@@ -2351,19 +2348,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E394F25-55EB-4E7A-9047-909FD3F4AEC0}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="151.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="151.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2377,177 +2374,249 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
-        <v>45167</v>
+        <v>45173</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15">
-        <v>45168</v>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="156" x14ac:dyDescent="0.6">
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="154.80000000000001" x14ac:dyDescent="0.5">
       <c r="A4" s="15">
         <v>45169</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
-        <v>45170</v>
+        <v>45172</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="219.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="219.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
-        <v>45170</v>
+        <v>45172</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="216" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>44</v>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="216" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>45177</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="163" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="163.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="271.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="271.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="157" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="157.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="81.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="161.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="161.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>37</v>
@@ -2555,29 +2624,37 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>38</v>
@@ -2585,17 +2662,17 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="239" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="238.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="133.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>39</v>
@@ -2603,25 +2680,25 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="268.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="268.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>40</v>
@@ -2629,101 +2706,101 @@
       <c r="C28" s="7"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="233.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="233.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="281.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="281.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="198.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="198.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="152" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="151.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="223.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="92.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="160.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
